--- a/datasets/Question-Explanation.xlsx
+++ b/datasets/Question-Explanation.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tokel\OneDrive\Masaüstü\dataset_toefl\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ED6DC8-CC17-4084-A8C0-050E8DBE13F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1044" yWindow="1044" windowWidth="17256" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sayfa1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2519,20 +2528,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -2542,39 +2553,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2764,24 +2780,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="42.13"/>
-    <col customWidth="1" min="2" max="2" width="31.88"/>
+    <col min="1" max="1" width="42.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2789,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2797,7 +2816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2805,7 +2824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2813,7 +2832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2821,7 +2840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2829,7 +2848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2837,7 +2856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2845,7 +2864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2853,7 +2872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2861,7 +2880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2869,7 +2888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2877,7 +2896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2885,7 +2904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -2893,7 +2912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2901,7 +2920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -2909,7 +2928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2917,7 +2936,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2925,7 +2944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2933,7 +2952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -2941,7 +2960,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2949,7 +2968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -2957,7 +2976,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2965,7 +2984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -2973,7 +2992,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -2981,7 +3000,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2989,7 +3008,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2997,7 +3016,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -3005,7 +3024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -3013,7 +3032,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
@@ -3021,7 +3040,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -3029,7 +3048,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -3037,7 +3056,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -3045,7 +3064,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -3053,7 +3072,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -3061,7 +3080,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -3069,7 +3088,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -3077,7 +3096,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
@@ -3085,7 +3104,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
@@ -3093,7 +3112,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
@@ -3101,7 +3120,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>78</v>
       </c>
@@ -3109,7 +3128,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
@@ -3117,7 +3136,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
@@ -3125,7 +3144,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>60</v>
       </c>
@@ -3133,7 +3152,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>85</v>
       </c>
@@ -3141,7 +3160,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>87</v>
       </c>
@@ -3149,7 +3168,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>89</v>
       </c>
@@ -3157,7 +3176,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>91</v>
       </c>
@@ -3165,7 +3184,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>93</v>
       </c>
@@ -3173,7 +3192,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -3181,7 +3200,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>97</v>
       </c>
@@ -3189,7 +3208,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>99</v>
       </c>
@@ -3197,7 +3216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>101</v>
       </c>
@@ -3205,7 +3224,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>103</v>
       </c>
@@ -3213,7 +3232,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>105</v>
       </c>
@@ -3221,7 +3240,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>107</v>
       </c>
@@ -3229,7 +3248,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>109</v>
       </c>
@@ -3237,7 +3256,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>111</v>
       </c>
@@ -3245,7 +3264,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>93</v>
       </c>
@@ -3253,7 +3272,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>113</v>
       </c>
@@ -3261,7 +3280,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>115</v>
       </c>
@@ -3269,7 +3288,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>117</v>
       </c>
@@ -3277,7 +3296,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>119</v>
       </c>
@@ -3285,7 +3304,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>121</v>
       </c>
@@ -3293,7 +3312,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>123</v>
       </c>
@@ -3301,7 +3320,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>125</v>
       </c>
@@ -3309,7 +3328,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>127</v>
       </c>
@@ -3317,7 +3336,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>129</v>
       </c>
@@ -3325,7 +3344,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>131</v>
       </c>
@@ -3333,7 +3352,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>133</v>
       </c>
@@ -3341,7 +3360,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>135</v>
       </c>
@@ -3349,7 +3368,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>137</v>
       </c>
@@ -3357,7 +3376,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>138</v>
       </c>
@@ -3365,7 +3384,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>129</v>
       </c>
@@ -3373,7 +3392,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>140</v>
       </c>
@@ -3381,7 +3400,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>142</v>
       </c>
@@ -3389,7 +3408,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>144</v>
       </c>
@@ -3397,7 +3416,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>146</v>
       </c>
@@ -3405,7 +3424,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>148</v>
       </c>
@@ -3413,7 +3432,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>150</v>
       </c>
@@ -3421,7 +3440,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>152</v>
       </c>
@@ -3429,7 +3448,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>154</v>
       </c>
@@ -3437,7 +3456,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>156</v>
       </c>
@@ -3445,7 +3464,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>158</v>
       </c>
@@ -3453,7 +3472,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>160</v>
       </c>
@@ -3461,7 +3480,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>162</v>
       </c>
@@ -3469,7 +3488,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>164</v>
       </c>
@@ -3477,7 +3496,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>166</v>
       </c>
@@ -3485,7 +3504,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>168</v>
       </c>
@@ -3493,7 +3512,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>170</v>
       </c>
@@ -3501,7 +3520,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>172</v>
       </c>
@@ -3509,7 +3528,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>174</v>
       </c>
@@ -3517,7 +3536,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>176</v>
       </c>
@@ -3525,7 +3544,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>178</v>
       </c>
@@ -3533,7 +3552,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>180</v>
       </c>
@@ -3541,7 +3560,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>182</v>
       </c>
@@ -3549,7 +3568,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>184</v>
       </c>
@@ -3557,7 +3576,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>186</v>
       </c>
@@ -3565,7 +3584,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>188</v>
       </c>
@@ -3573,7 +3592,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>190</v>
       </c>
@@ -3581,7 +3600,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>192</v>
       </c>
@@ -3589,7 +3608,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>194</v>
       </c>
@@ -3597,7 +3616,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>196</v>
       </c>
@@ -3605,7 +3624,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>198</v>
       </c>
@@ -3613,7 +3632,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>200</v>
       </c>
@@ -3621,7 +3640,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>202</v>
       </c>
@@ -3629,7 +3648,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>204</v>
       </c>
@@ -3637,7 +3656,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>206</v>
       </c>
@@ -3645,7 +3664,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>208</v>
       </c>
@@ -3653,7 +3672,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>210</v>
       </c>
@@ -3661,7 +3680,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>212</v>
       </c>
@@ -3669,7 +3688,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>214</v>
       </c>
@@ -3677,7 +3696,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>216</v>
       </c>
@@ -3685,7 +3704,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>218</v>
       </c>
@@ -3693,7 +3712,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>220</v>
       </c>
@@ -3701,7 +3720,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>222</v>
       </c>
@@ -3709,7 +3728,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>224</v>
       </c>
@@ -3717,7 +3736,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>226</v>
       </c>
@@ -3725,7 +3744,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>228</v>
       </c>
@@ -3733,7 +3752,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>230</v>
       </c>
@@ -3741,7 +3760,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>232</v>
       </c>
@@ -3749,7 +3768,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>234</v>
       </c>
@@ -3757,7 +3776,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>236</v>
       </c>
@@ -3765,7 +3784,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>238</v>
       </c>
@@ -3773,7 +3792,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>240</v>
       </c>
@@ -3781,7 +3800,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>242</v>
       </c>
@@ -3789,7 +3808,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>244</v>
       </c>
@@ -3797,7 +3816,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>246</v>
       </c>
@@ -3805,7 +3824,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>248</v>
       </c>
@@ -3813,7 +3832,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>250</v>
       </c>
@@ -3821,7 +3840,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>252</v>
       </c>
@@ -3829,7 +3848,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>254</v>
       </c>
@@ -3837,7 +3856,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>256</v>
       </c>
@@ -3845,7 +3864,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>258</v>
       </c>
@@ -3853,7 +3872,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>260</v>
       </c>
@@ -3861,7 +3880,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>262</v>
       </c>
@@ -3869,7 +3888,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>264</v>
       </c>
@@ -3877,7 +3896,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>266</v>
       </c>
@@ -3885,7 +3904,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>268</v>
       </c>
@@ -3893,7 +3912,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>270</v>
       </c>
@@ -3901,7 +3920,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>272</v>
       </c>
@@ -3909,7 +3928,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>274</v>
       </c>
@@ -3917,7 +3936,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>276</v>
       </c>
@@ -3925,7 +3944,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>278</v>
       </c>
@@ -3933,7 +3952,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>280</v>
       </c>
@@ -3941,7 +3960,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>282</v>
       </c>
@@ -3949,7 +3968,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>284</v>
       </c>
@@ -3957,7 +3976,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>286</v>
       </c>
@@ -3965,7 +3984,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>288</v>
       </c>
@@ -3973,7 +3992,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>290</v>
       </c>
@@ -3982,6 +4001,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>